--- a/reports/corpus_1500-unigram_bigram-fold-1.xlsx
+++ b/reports/corpus_1500-unigram_bigram-fold-1.xlsx
@@ -560,31 +560,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9966666666666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.950199203187251</v>
+        <v>0.9800796812749004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9819277108433735</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9018567639257294</v>
+        <v>0.9363395225464191</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6291793313069909</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9589525831564049</v>
+        <v>0.9518754423213022</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3672496025437202</v>
+        <v>0.5850556438791733</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7372881355932204</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6866666666666666</v>
       </c>
       <c r="R2" t="n">
         <v>0.4285714285714285</v>
@@ -611,19 +611,19 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.562795089707271</v>
+        <v>0.7233238904627006</v>
       </c>
       <c r="U2" t="n">
         <v>0.1818181818181818</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7423655247248488</v>
+        <v>0.8257634475275151</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7197660718068488</v>
+        <v>0.7881438569066845</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8541572765350899</v>
+        <v>0.8694791715852195</v>
       </c>
     </row>
     <row r="3">
@@ -639,28 +639,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9714867617107943</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8810810810810811</v>
+        <v>0.9060773480662984</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9742120343839542</v>
+        <v>0.9697802197802198</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9932885906040269</v>
+        <v>0.9868852459016394</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8734177215189873</v>
+        <v>0.8814814814814815</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -669,37 +669,37 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4724546722454672</v>
+        <v>0.5852915578764143</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9560439560439561</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8879310344827587</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9057750759878419</v>
+        <v>0.9140811455847255</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7423655247248488</v>
+        <v>0.8257634475275151</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9482678097789595</v>
+        <v>0.8846569536286812</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7423655247248488</v>
+        <v>0.8257634475275151</v>
       </c>
     </row>
     <row r="4">
@@ -712,31 +712,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983305509181971</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.960725075528701</v>
+        <v>0.9869608826479438</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9287749287749286</v>
+        <v>0.9452449567723342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9366391184573003</v>
+        <v>0.9527665317139002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9747899159663865</v>
+        <v>0.9745762711864409</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9768976897689768</v>
+        <v>0.9820554649265907</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7314487632508835</v>
+        <v>0.7946577629382303</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -745,37 +745,37 @@
         <v>0.8750000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6330296659658958</v>
+        <v>0.7248720021557532</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5372093023255814</v>
+        <v>0.7382146439317955</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8325358851674641</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7058823529411766</v>
+        <v>0.7744360902255638</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6942341292952824</v>
+        <v>0.8075909330521877</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7423655247248488</v>
+        <v>0.8257634475275151</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7687503933935632</v>
+        <v>0.8179602144873955</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7446516496119843</v>
+        <v>0.8234681661229657</v>
       </c>
     </row>
     <row r="5">
@@ -788,31 +788,31 @@
         <v>271</v>
       </c>
       <c r="C5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H5" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K5" t="n">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -821,31 +821,31 @@
         <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>2868</v>
+        <v>2298</v>
       </c>
       <c r="O5" t="n">
-        <v>462</v>
+        <v>736</v>
       </c>
       <c r="P5" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="Q5" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="R5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>658</v>
+        <v>838</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7423655247248488</v>
+        <v>0.8257634475275151</v>
       </c>
       <c r="W5" t="n">
         <v>6451</v>
